--- a/medicine/Enfance/Martin_Provost/Martin_Provost.xlsx
+++ b/medicine/Enfance/Martin_Provost/Martin_Provost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin Provost, né le 13 mai 1957 à Brest, est un réalisateur et écrivain français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin Provost, né le 13 mai 1957 à Brest, est un réalisateur et écrivain français.
 </t>
         </is>
       </c>
@@ -511,17 +523,54 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Brest[2], il rêve de devenir cinéaste, mais son père, officier de marine, lui déconseille de tenter l’IDHEC (Institut des hautes études cinématographiques) à cause de son niveau déplorable dans toutes les matières scientifiques, qui à l’époque étaient exigées au concours d’entrée. Il décide de devenir acteur, ce qui, pense-t-il, l’éloignera un moment de sa vocation mais sera très formateur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Brest, il rêve de devenir cinéaste, mais son père, officier de marine, lui déconseille de tenter l’IDHEC (Institut des hautes études cinématographiques) à cause de son niveau déplorable dans toutes les matières scientifiques, qui à l’époque étaient exigées au concours d’entrée. Il décide de devenir acteur, ce qui, pense-t-il, l’éloignera un moment de sa vocation mais sera très formateur.
 À dix-huit ans, il part pour Paris et entre au cours Simon.
 Très vite, il décroche son premier rôle en 1976 dans Néa de Nelly Kaplan, puis, en 1977, celui de Philippe de Plessis-Vaudreuil dans la saga Au plaisir de Dieu de Robert Mazoyer adaptation du roman à succès de Jean d'Ormesson ; mais, très attiré par le théâtre, il écrit sa première pièce Le Voyage immobile qu’il joue avec Yann Collette au Studio d’Ivry en 1980, avec une mise en scène d’Antoine Campo.
 Remarqué par Philippe Adrien, il entre comme stagiaire à la Comédie-Française pour jouer Valère dans Le Médecin volant. Jean-Pierre Vincent l’engage comme pensionnaire. Il joue plusieurs pièces avec lui dont Macbeth, (cour d’honneur du festival d’Avignon, rôle de Rosse), Le Suicidé de Nikolaï Erdman (Odéon, rôle du sourd muet), travaille aussi avec Jacques Lassalle, Alain Françon, etc. Les Poupées, sa seconde pièce, est lue à la chapelle Sainte-Claire en Avignon par Denise Gence, puis créée au TEP [pas clair] en 1992.
 En 1990, il cesse toute activité de comédien pour se consacrer à l’écriture et au cinéma.
 Il écrit de nombreuses pièces radiophoniques, notamment pour les enfants, et est récompensé pour tout son travail à France Culture par le prix SACD en 2006.
-Carrière de réalisateur
-Martin Provost décide de passer derrière la caméra dans les années 1990.
-Sa passion prend naissance, dit-il, avec son grand-père, passionné de cinéma et cinéaste amateur avec qui il a tourné enfant une adaptation de Pierre et le Loup de Prokoviev[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Martin_Provost</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martin_Provost</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière de réalisateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin Provost décide de passer derrière la caméra dans les années 1990.
+Sa passion prend naissance, dit-il, avec son grand-père, passionné de cinéma et cinéaste amateur avec qui il a tourné enfant une adaptation de Pierre et le Loup de Prokoviev.
 En 1988, il écrit son premier scénario, Aime-moi vite. Remarqué par Françoise Verny, elle lui commande le roman à partir du scénario. Cette expérience lui enlèvera toute envie de réaliser le film.
 Il tourne son premier long métrage en 1997. Tortilla et Cinéma raconte l’histoire d’un jeune metteur en scène aux prises avec la difficulté de faire son premier film. Carmen Maura y joue son propre rôle. Ce premier film est une ébauche qui contient tout ce qui viendra ensuite, le cinéaste s’exprimant déjà de façon très personnelle dans un univers à la fois poétique et introspectif.
 En 2002, il écrit et réalise Le Ventre de Juliette, l’histoire d’une jeune fille de vingt ans, Juliette, incarnée par Julie-Marie Parmentier, qui décide un jour de faire un bébé toute seule. Le père (Stéphane Rideau) fait tout pour avoir sa juste place auprès d’elle et de l’enfant, mais Juliette l’en empêche.
@@ -538,39 +587,44 @@
 Resurgit du passé Béatrice (Catherine Deneuve), ancienne maîtresse de son père disparu. Elle est l’exact opposé de Claire : frivole et égoïste, elle a toujours prôné la liberté avant l’engagement. Malade, elle cherche à retrouver l’homme qui a été le grand amour de sa vie. Elle ne retrouve que sa fille.
 Parabole de la fable La Cigale et la fourmi, le film raconte l’histoire d’une transmission. Sauvé par une sage-femme à sa naissance, Martin Provost n’a eu de cesse de retrouver la trace de celle qui lui a donné son sang. Il la retrouvera grâce au film. Il s’agit de Yvonne André aujourd’hui disparue[réf. nécessaire]. "Sage-femme" est sorti en France le 22 mars 2017 après avoir été présenté le 14 février 2017 en sélection officielle de la Berlinale.
 La même année, il est président du jury du 32e festival international du film francophone de Namur et membre du jury présidé par Tommy Lee Jones du 30e festival international du film de Tokyo.
-La Bonne Épouse (sortie le 4 mars 2020) est sans doute son film le plus engagé, le plus ouvertement féministe. C’est l’histoire de la chute d’une école ménagère avant Mai 68. Avant cette date, les écoles ménagères étaient très nombreuses en France.  Bon nombre de jeunes filles y faisaient leur apprentissage dans le but de trouver un mari.  Sur le ton de la comédie (Juliette Binoche, Yolande Moreau, Noémie Lvovsky, Édouard Baer), le film rend compte de l’évolution de la vie des femmes ces cinquante dernières années. Dans la rubrique "on peut éviter" des sorties cinéma, le journal Le Monde écrit à propos du film : « Pour rappeler l’histoire de l’émancipation des femmes, Martin Provost fait le choix de la comédie (poussée à la caricature), et de l’esthétique compassée du cinéma de papa. Le jeu des acteurs marche à l’unisson de ces parti pris, marqués par l’outrance, jusqu’à la dernière séquence (musicale) du film. Un sommet de ridicule. »[4].
+La Bonne Épouse (sortie le 4 mars 2020) est sans doute son film le plus engagé, le plus ouvertement féministe. C’est l’histoire de la chute d’une école ménagère avant Mai 68. Avant cette date, les écoles ménagères étaient très nombreuses en France.  Bon nombre de jeunes filles y faisaient leur apprentissage dans le but de trouver un mari.  Sur le ton de la comédie (Juliette Binoche, Yolande Moreau, Noémie Lvovsky, Édouard Baer), le film rend compte de l’évolution de la vie des femmes ces cinquante dernières années. Dans la rubrique "on peut éviter" des sorties cinéma, le journal Le Monde écrit à propos du film : « Pour rappeler l’histoire de l’émancipation des femmes, Martin Provost fait le choix de la comédie (poussée à la caricature), et de l’esthétique compassée du cinéma de papa. Le jeu des acteurs marche à l’unisson de ces parti pris, marqués par l’outrance, jusqu’à la dernière séquence (musicale) du film. Un sommet de ridicule. ».
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Martin_Provost</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Martin_Provost</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Filmographie sélective</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En tant que scénariste et réalisateur
-1990 : J'ai peur du noir (court-métrage)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant que scénariste et réalisateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1990 : J'ai peur du noir (court-métrage)
 1992 : Cocon (court-métrage)
 1997 : Tortilla y cinema
 2003 : Le Ventre de Juliette
@@ -583,41 +637,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Martin_Provost</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Martin_Provost</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Œuvre littéraire</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans
-Aime-moi vite, Paris, Flammarion, 1992
-Léger, humain, pardonnable, Paris, Le Seuil, 2007
-Bifteck, Phébus, 2010
-Ouvrage de littérature d'enfance et de jeunesse
-La Rousse Péteuse, Paris, Gallimard, 2009</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -639,10 +658,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvre littéraire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aime-moi vite, Paris, Flammarion, 1992
+Léger, humain, pardonnable, Paris, Le Seuil, 2007
+Bifteck, Phébus, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Martin_Provost</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martin_Provost</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre littéraire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Rousse Péteuse, Paris, Gallimard, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Martin_Provost</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Martin_Provost</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix SACD radio 2006
 Césars 2009 : nomination au César du meilleur réalisateur pour Séraphine
